--- a/заказы/филиалы и опт/2024/07,24/16,07,24 Ост КИ филиалы/дв 16,07,24 млрсч ост ки от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/07,24/16,07,24 Ост КИ филиалы/дв 16,07,24 млрсч ост ки от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\16,07,24 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\07,24\16,07,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D3925-C943-44CD-91BD-77BFC335E151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AC1506-974B-4A59-8481-B3025B5D50A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AE$101</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -974,10 +974,10 @@
   <dimension ref="A1:AY492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
+      <selection pane="bottomRight" activeCell="V78" sqref="V78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5616,7 +5616,10 @@
         <v>360</v>
       </c>
       <c r="U42" s="5"/>
-      <c r="V42" s="1"/>
+      <c r="V42" s="16">
+        <f>P42/(Y42/100)-100</f>
+        <v>50.431034482758633</v>
+      </c>
       <c r="W42" s="1">
         <f t="shared" si="21"/>
         <v>14.054441260744987</v>
@@ -7729,7 +7732,10 @@
         <v>350</v>
       </c>
       <c r="U60" s="5"/>
-      <c r="V60" s="1"/>
+      <c r="V60" s="16">
+        <f>P60/(Y60/100)-100</f>
+        <v>72.588832487309674</v>
+      </c>
       <c r="W60" s="1">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -10139,7 +10145,10 @@
       </c>
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
-      <c r="V81" s="1"/>
+      <c r="V81" s="16">
+        <f>91/5/(P81/100)-100</f>
+        <v>213.79310344827587</v>
+      </c>
       <c r="W81" s="1">
         <f t="shared" si="39"/>
         <v>24.482758620689655</v>
@@ -10372,7 +10381,10 @@
         <v>50</v>
       </c>
       <c r="U83" s="5"/>
-      <c r="V83" s="1"/>
+      <c r="V83" s="16">
+        <f>P83/(Y83/100)-100</f>
+        <v>55.555555555555515</v>
+      </c>
       <c r="W83" s="1">
         <f t="shared" si="39"/>
         <v>11.964285714285715</v>
